--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H2">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.02757633333333</v>
+        <v>19.84999933333333</v>
       </c>
       <c r="N2">
-        <v>60.082729</v>
+        <v>59.549998</v>
       </c>
       <c r="O2">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="P2">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="Q2">
-        <v>330.5925789218336</v>
+        <v>303.343044912156</v>
       </c>
       <c r="R2">
-        <v>2975.333210296503</v>
+        <v>2730.087404209404</v>
       </c>
       <c r="S2">
-        <v>0.0433554919082382</v>
+        <v>0.03328837613421891</v>
       </c>
       <c r="T2">
-        <v>0.0433554919082382</v>
+        <v>0.03328837613421891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H3">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>99.89723900000001</v>
       </c>
       <c r="O3">
-        <v>0.3328670078646687</v>
+        <v>0.3072686534975208</v>
       </c>
       <c r="P3">
-        <v>0.3328670078646686</v>
+        <v>0.3072686534975207</v>
       </c>
       <c r="Q3">
-        <v>549.6635458782304</v>
+        <v>508.868743481358</v>
       </c>
       <c r="R3">
-        <v>4946.971912904073</v>
+        <v>4579.818691332222</v>
       </c>
       <c r="S3">
-        <v>0.07208550625454843</v>
+        <v>0.05584243456401062</v>
       </c>
       <c r="T3">
-        <v>0.0720855062545484</v>
+        <v>0.05584243456401061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H4">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.77731666666667</v>
+        <v>24.07451633333333</v>
       </c>
       <c r="N4">
-        <v>38.33195</v>
+        <v>72.22354899999999</v>
       </c>
       <c r="O4">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="P4">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="Q4">
-        <v>210.9134923881833</v>
+        <v>367.9011251691779</v>
       </c>
       <c r="R4">
-        <v>1898.22143149365</v>
+        <v>3311.110126522602</v>
       </c>
       <c r="S4">
-        <v>0.02766020411709313</v>
+        <v>0.04037287566088902</v>
       </c>
       <c r="T4">
-        <v>0.02766020411709313</v>
+        <v>0.04037287566088902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H5">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.93321599999999</v>
+        <v>31.14762733333333</v>
       </c>
       <c r="N5">
-        <v>101.799648</v>
+        <v>93.442882</v>
       </c>
       <c r="O5">
-        <v>0.3392060138062123</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="P5">
-        <v>0.3392060138062122</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="Q5">
-        <v>560.1311512607039</v>
+        <v>475.990752363204</v>
       </c>
       <c r="R5">
-        <v>5041.180361346335</v>
+        <v>4283.916771268836</v>
       </c>
       <c r="S5">
-        <v>0.07345827808729355</v>
+        <v>0.05223445688581608</v>
       </c>
       <c r="T5">
-        <v>0.07345827808729354</v>
+        <v>0.05223445688581608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.02757633333333</v>
+        <v>19.84999933333333</v>
       </c>
       <c r="N6">
-        <v>60.082729</v>
+        <v>59.549998</v>
       </c>
       <c r="O6">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="P6">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="Q6">
-        <v>496.3136232354161</v>
+        <v>491.912996678992</v>
       </c>
       <c r="R6">
-        <v>4466.822609118744</v>
+        <v>4427.216970110929</v>
       </c>
       <c r="S6">
-        <v>0.06508894224518945</v>
+        <v>0.05398173827754329</v>
       </c>
       <c r="T6">
-        <v>0.06508894224518944</v>
+        <v>0.05398173827754329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>99.89723900000001</v>
       </c>
       <c r="O7">
-        <v>0.3328670078646687</v>
+        <v>0.3072686534975208</v>
       </c>
       <c r="P7">
-        <v>0.3328670078646686</v>
+        <v>0.3072686534975207</v>
       </c>
       <c r="Q7">
         <v>825.2015423484562</v>
@@ -883,10 +883,10 @@
         <v>7426.813881136106</v>
       </c>
       <c r="S7">
-        <v>0.1082208769133121</v>
+        <v>0.09055628533097837</v>
       </c>
       <c r="T7">
-        <v>0.1082208769133121</v>
+        <v>0.09055628533097836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.77731666666667</v>
+        <v>24.07451633333333</v>
       </c>
       <c r="N8">
-        <v>38.33195</v>
+        <v>72.22354899999999</v>
       </c>
       <c r="O8">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="P8">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="Q8">
-        <v>316.6412263028</v>
+        <v>596.602915408696</v>
       </c>
       <c r="R8">
-        <v>2849.7710367252</v>
+        <v>5369.426238678264</v>
       </c>
       <c r="S8">
-        <v>0.04152584480134865</v>
+        <v>0.06547024098293543</v>
       </c>
       <c r="T8">
-        <v>0.04152584480134863</v>
+        <v>0.06547024098293543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.93321599999999</v>
+        <v>31.14762733333333</v>
       </c>
       <c r="N9">
-        <v>101.799648</v>
+        <v>93.442882</v>
       </c>
       <c r="O9">
-        <v>0.3392060138062123</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="P9">
-        <v>0.3392060138062122</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="Q9">
-        <v>840.916399502592</v>
+        <v>771.885300532528</v>
       </c>
       <c r="R9">
-        <v>7568.247595523328</v>
+        <v>6946.967704792753</v>
       </c>
       <c r="S9">
-        <v>0.110281798439159</v>
+        <v>0.08470544700981116</v>
       </c>
       <c r="T9">
-        <v>0.110281798439159</v>
+        <v>0.08470544700981116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H10">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.02757633333333</v>
+        <v>19.84999933333333</v>
       </c>
       <c r="N10">
-        <v>60.082729</v>
+        <v>59.549998</v>
       </c>
       <c r="O10">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="P10">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="Q10">
-        <v>205.391547349191</v>
+        <v>364.6690422025086</v>
       </c>
       <c r="R10">
-        <v>1848.523926142719</v>
+        <v>3282.021379822578</v>
       </c>
       <c r="S10">
-        <v>0.02693602983515206</v>
+        <v>0.04001819209290859</v>
       </c>
       <c r="T10">
-        <v>0.02693602983515206</v>
+        <v>0.04001819209290859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H11">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>99.89723900000001</v>
       </c>
       <c r="O11">
-        <v>0.3328670078646687</v>
+        <v>0.3072686534975208</v>
       </c>
       <c r="P11">
-        <v>0.3328670078646686</v>
+        <v>0.3072686534975207</v>
       </c>
       <c r="Q11">
-        <v>341.4966136794811</v>
+        <v>611.7452844382144</v>
       </c>
       <c r="R11">
-        <v>3073.46952311533</v>
+        <v>5505.70755994393</v>
       </c>
       <c r="S11">
-        <v>0.04478549917653236</v>
+        <v>0.06713194011951437</v>
       </c>
       <c r="T11">
-        <v>0.04478549917653234</v>
+        <v>0.06713194011951437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H12">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.77731666666667</v>
+        <v>24.07451633333333</v>
       </c>
       <c r="N12">
-        <v>38.33195</v>
+        <v>72.22354899999999</v>
       </c>
       <c r="O12">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="P12">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="Q12">
-        <v>131.03696610405</v>
+        <v>442.2786452200377</v>
       </c>
       <c r="R12">
-        <v>1179.33269493645</v>
+        <v>3980.507806980339</v>
       </c>
       <c r="S12">
-        <v>0.01718481443876421</v>
+        <v>0.04853494466135156</v>
       </c>
       <c r="T12">
-        <v>0.01718481443876421</v>
+        <v>0.04853494466135156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H13">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.93321599999999</v>
+        <v>31.14762733333333</v>
       </c>
       <c r="N13">
-        <v>101.799648</v>
+        <v>93.442882</v>
       </c>
       <c r="O13">
-        <v>0.3392060138062123</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="P13">
-        <v>0.3392060138062122</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="Q13">
-        <v>347.999958895392</v>
+        <v>572.2204437283447</v>
       </c>
       <c r="R13">
-        <v>3131.999630058528</v>
+        <v>5149.983993555102</v>
       </c>
       <c r="S13">
-        <v>0.04563837897136758</v>
+        <v>0.06279454789555142</v>
       </c>
       <c r="T13">
-        <v>0.04563837897136758</v>
+        <v>0.06279454789555142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H14">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.02757633333333</v>
+        <v>19.84999933333333</v>
       </c>
       <c r="N14">
-        <v>60.082729</v>
+        <v>59.549998</v>
       </c>
       <c r="O14">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="P14">
-        <v>0.200201311135073</v>
+        <v>0.1831667009459596</v>
       </c>
       <c r="Q14">
-        <v>494.2693551122024</v>
+        <v>509.196430798524</v>
       </c>
       <c r="R14">
-        <v>4448.424196009822</v>
+        <v>4582.767877186716</v>
       </c>
       <c r="S14">
-        <v>0.06482084714649332</v>
+        <v>0.0558783944412888</v>
       </c>
       <c r="T14">
-        <v>0.0648208471464933</v>
+        <v>0.0558783944412888</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H15">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>99.89723900000001</v>
       </c>
       <c r="O15">
-        <v>0.3328670078646687</v>
+        <v>0.3072686534975208</v>
       </c>
       <c r="P15">
-        <v>0.3328670078646686</v>
+        <v>0.3072686534975207</v>
       </c>
       <c r="Q15">
-        <v>821.8026164893337</v>
+        <v>854.1951176123821</v>
       </c>
       <c r="R15">
-        <v>7396.223548404003</v>
+        <v>7687.756058511439</v>
       </c>
       <c r="S15">
-        <v>0.1077751255202758</v>
+        <v>0.09373799348301742</v>
       </c>
       <c r="T15">
-        <v>0.1077751255202757</v>
+        <v>0.09373799348301741</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H16">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.77731666666667</v>
+        <v>24.07451633333333</v>
       </c>
       <c r="N16">
-        <v>38.33195</v>
+        <v>72.22354899999999</v>
       </c>
       <c r="O16">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="P16">
-        <v>0.1277256671940461</v>
+        <v>0.2221486086521591</v>
       </c>
       <c r="Q16">
-        <v>315.3370115177889</v>
+        <v>617.564644929162</v>
       </c>
       <c r="R16">
-        <v>2838.0331036601</v>
+        <v>5558.081804362458</v>
       </c>
       <c r="S16">
-        <v>0.04135480383684011</v>
+        <v>0.06777054734698311</v>
       </c>
       <c r="T16">
-        <v>0.0413548038368401</v>
+        <v>0.06777054734698311</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H17">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.93321599999999</v>
+        <v>31.14762733333333</v>
       </c>
       <c r="N17">
-        <v>101.799648</v>
+        <v>93.442882</v>
       </c>
       <c r="O17">
-        <v>0.3392060138062123</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="P17">
-        <v>0.3392060138062122</v>
+        <v>0.2874160369043605</v>
       </c>
       <c r="Q17">
-        <v>837.4527456568959</v>
+        <v>799.005601946916</v>
       </c>
       <c r="R17">
-        <v>7537.074710912064</v>
+        <v>7191.050417522244</v>
       </c>
       <c r="S17">
-        <v>0.1098275583083921</v>
+        <v>0.08768158511318179</v>
       </c>
       <c r="T17">
-        <v>0.1098275583083921</v>
+        <v>0.08768158511318179</v>
       </c>
     </row>
   </sheetData>
